--- a/resources/experiment 2/metrics/R2/incidence/Ictus (INC).xlsx
+++ b/resources/experiment 2/metrics/R2/incidence/Ictus (INC).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6811865428430562</v>
+        <v>0.870628789650563</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6811865428430562</v>
+        <v>0.8622395829820088</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6811865428430562</v>
+        <v>0.8459063383793706</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8256444857852085</v>
+        <v>0.6944089051338344</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8256453789815009</v>
+        <v>0.6945929291478993</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8256453789815009</v>
+        <v>0.4819568061340534</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5989540324673454</v>
+        <v>0.7188741652076042</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5989540324673454</v>
+        <v>0.670413811078315</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5989540324673454</v>
+        <v>0.6975499638964551</v>
       </c>
     </row>
   </sheetData>
